--- a/mbs-perturbation/greedy/svm/smote/greedy-svm-linear-results.xlsx
+++ b/mbs-perturbation/greedy/svm/smote/greedy-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7278481012658228</v>
+        <v>0.7402135231316725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9004329004329005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8409506398537476</v>
+        <v>0.8125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8036299919416803</v>
+        <v>0.8173666160679147</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8309352517985612</v>
+        <v>0.7601476014760148</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8917748917748918</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9076620825147348</v>
+        <v>0.8207171314741036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9073293229137385</v>
+        <v>0.8538070875733214</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9078341013824884</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8528138528138528</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8794642857142858</v>
+        <v>0.9006622516556292</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9550608122036693</v>
+        <v>0.9582091789883997</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.77734375</v>
+        <v>0.6446540880503144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8614718614718615</v>
+        <v>0.8874458874458875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8172484599589321</v>
+        <v>0.7468123861566485</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875287031808771</v>
+        <v>0.8779973649538867</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6748466257668712</v>
+        <v>0.8313725490196079</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7913669064748202</v>
+        <v>0.8742268041237113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8048371917937135</v>
+        <v>0.94824016563147</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7837615660427487</v>
+        <v>0.7790613361193057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9332956898174289</v>
+        <v>0.8969019386410689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8473384749033042</v>
+        <v>0.8309837146820186</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8692288701323145</v>
+        <v>0.8911240826429985</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/svm/smote/greedy-svm-linear-results.xlsx
+++ b/mbs-perturbation/greedy/svm/smote/greedy-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7402135231316725</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9004329004329005</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8125</v>
+        <v>0.6825938566552902</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8173666160679147</v>
+        <v>0.6877311390532544</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7601476014760148</v>
+        <v>0.6828358208955224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8917748917748918</v>
+        <v>0.8798076923076923</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8207171314741036</v>
+        <v>0.7689075630252101</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8538070875733214</v>
+        <v>0.8769877958579881</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.918918918918919</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8831168831168831</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9006622516556292</v>
+        <v>0.8093023255813953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9582091789883997</v>
+        <v>0.9057877218934911</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6446540880503144</v>
+        <v>0.5377643504531722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8874458874458875</v>
+        <v>0.8557692307692307</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7468123861566485</v>
+        <v>0.6604823747680891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8779973649538867</v>
+        <v>0.5584550665680472</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8313725490196079</v>
+        <v>0.4941520467836257</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9217391304347826</v>
+        <v>0.8125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8742268041237113</v>
+        <v>0.6145454545454545</v>
       </c>
       <c r="E6" t="n">
-        <v>0.94824016563147</v>
+        <v>0.4100406804733728</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7790613361193057</v>
+        <v>0.6055273062033265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8969019386410689</v>
+        <v>0.8692307692307694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8309837146820186</v>
+        <v>0.7071663149150877</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8911240826429985</v>
+        <v>0.6878004807692307</v>
       </c>
     </row>
   </sheetData>
